--- a/Bot-Varredura/dominios.xlsx
+++ b/Bot-Varredura/dominios.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">DATA EXTRACAO</t>
   </si>
   <si>
-    <t xml:space="preserve">angra.rj.gov.br</t>
+    <t xml:space="preserve">coloque_o_dominio_aqui</t>
   </si>
 </sst>
 </file>
@@ -121,12 +121,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,30 +151,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:C2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.51"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Bot-Varredura/dominios.xlsx
+++ b/Bot-Varredura/dominios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-12-31 11:54:35</t>
+          <t>2025-01-10 23:53:58</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-12-31 11:54:46</t>
+          <t>2025-01-10 23:54:09</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-12-31 11:54:50</t>
+          <t>2025-01-10 23:54:14</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-12-31 11:54:56</t>
+          <t>2025-01-10 23:54:20</t>
         </is>
       </c>
     </row>
@@ -531,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:02</t>
+          <t>2025-01-10 23:54:25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>araruama.rj.gov.br/novo</t>
+          <t>araruama.rj.gov.br</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:08</t>
+          <t>2025-01-10 23:54:31</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:15</t>
+          <t>2025-01-10 23:54:35</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:25</t>
+          <t>2025-01-10 23:54:45</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:32</t>
+          <t>2025-01-10 23:54:51</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:38</t>
+          <t>2025-01-10 23:54:58</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:43</t>
+          <t>2025-01-10 23:55:03</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:50</t>
+          <t>2025-01-10 23:55:10</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-12-31 11:55:54</t>
+          <t>2025-01-10 23:55:15</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ERRO</t>
+          <t>SUCESSO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:01</t>
+          <t>2025-01-10 23:55:22</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:02</t>
+          <t>2025-01-10 23:55:28</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:08</t>
+          <t>2025-01-10 23:55:33</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:16</t>
+          <t>2025-01-10 23:55:40</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:20</t>
+          <t>2025-01-10 23:55:44</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:24</t>
+          <t>2025-01-10 23:55:48</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:32</t>
+          <t>2025-01-10 23:55:56</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-12-31 11:56:37</t>
+          <t>2025-01-10 23:56:01</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:00</t>
+          <t>2025-01-10 23:56:22</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:08</t>
+          <t>2025-01-10 23:56:31</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:15</t>
+          <t>2025-01-10 23:56:38</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:22</t>
+          <t>2025-01-10 23:56:44</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:28</t>
+          <t>2025-01-10 23:56:49</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:36</t>
+          <t>2025-01-10 23:56:59</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:40</t>
+          <t>2025-01-10 23:57:04</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-12-31 11:57:51</t>
+          <t>2025-01-10 23:57:13</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-12-31 11:58:46</t>
+          <t>2025-01-10 23:57:27</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-12-31 11:58:52</t>
+          <t>2025-01-10 23:57:33</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:00</t>
+          <t>2025-01-10 23:57:46</t>
         </is>
       </c>
     </row>
@@ -1007,24 +1007,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:01</t>
+          <t>2025-01-10 23:57:47</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>patydoalferes.rj.gov.br</t>
+          <t>patydoalferes.rj.gov.b</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
+          <t>ERRO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:08</t>
+          <t>2025-01-10 23:57:55</t>
         </is>
       </c>
     </row>
@@ -1041,24 +1041,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:13</t>
+          <t>2025-01-10 23:57:55</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pirai.rj.gov.br</t>
+          <t>pirai.rj.gov.b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
+          <t>ERRO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:19</t>
+          <t>2025-01-10 23:58:02</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:23</t>
+          <t>2025-01-10 23:58:02</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:28</t>
+          <t>2025-01-10 23:58:06</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:33</t>
+          <t>2025-01-10 23:58:14</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:42</t>
+          <t>2025-01-10 23:58:22</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:49</t>
+          <t>2025-01-10 23:58:29</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SUCESSO</t>
+          <t>ERRO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-12-31 11:59:57</t>
+          <t>2025-01-10 23:58:56</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:07</t>
+          <t>2025-01-10 23:58:56</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:14</t>
+          <t>2025-01-10 23:59:03</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:19</t>
+          <t>2025-01-10 23:59:10</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:27</t>
+          <t>2025-01-10 23:59:17</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:34</t>
+          <t>2025-01-10 23:59:24</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:44</t>
+          <t>2025-01-10 23:59:30</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:45</t>
+          <t>2025-01-10 23:59:31</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-12-31 12:00:50</t>
+          <t>2025-01-10 23:59:36</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:01</t>
+          <t>2025-01-10 23:59:41</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:11</t>
+          <t>2025-01-10 23:59:47</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:17</t>
+          <t>2025-01-10 23:59:53</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:25</t>
+          <t>2025-01-10 23:59:58</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:31</t>
+          <t>2025-01-11 00:00:07</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:36</t>
+          <t>2025-01-11 00:00:12</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:43</t>
+          <t>2025-01-11 00:00:21</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,568 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-12-31 12:01:48</t>
+          <t>2025-01-11 00:00:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>prefeituradebelfordroxo.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:00:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>portal.prefeituradecambuci.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:00:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>cantagalo.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>cardosomoreira.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:00:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>carmo.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:00:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>casimirodeabreu.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>casimirodeabreu.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>paulodefrontin.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>guapimirim.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>iguaba.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>site.ib.itaborai.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>novoportal.itaguai.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>itaperuna.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>prefeituramacuco.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>mage.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mangaratiba.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>marica.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:01:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>prefeitura.mesquita.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:02:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>paraibadosul.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>pinheiral.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:02:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>quissama.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>riobonito.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>riodasflores.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>pmsmm.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>santoantoniodepadua.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>osaogoncalo.com.br</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>pmsfi.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sjb.rj.gov.b</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>portal.meriti.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>saojosedeuba.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:03:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>pmspa.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ssalto.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:04:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>saquarema.rj.gov.br</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SUCESSO</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-01-11 00:04:19</t>
         </is>
       </c>
     </row>
